--- a/DKS-API/Resources/Template/TempDtrFgtEtd.xlsx
+++ b/DKS-API/Resources/Template/TempDtrFgtEtd.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Article</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,26 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ETD User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETD Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lab No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGT User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FGT Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;=result.FactoryId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,15 +88,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=result.LabNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.FgtUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=result.FgtDate</t>
+    <t>Update User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,11 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -537,15 +513,12 @@
     <col min="5" max="5" width="17.875" style="9" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="10" customWidth="1"/>
     <col min="7" max="7" width="46.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -568,24 +541,15 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -597,32 +561,23 @@
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:I1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DKS-API/Resources/Template/TempDtrFgtEtd.xlsx
+++ b/DKS-API/Resources/Template/TempDtrFgtEtd.xlsx
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QC ETD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +89,10 @@
   </si>
   <si>
     <t>Update Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QC Result Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -510,8 +510,8 @@
     <col min="2" max="2" width="10.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="10" customWidth="1"/>
     <col min="7" max="7" width="46.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.625" style="5" customWidth="1"/>
@@ -535,21 +535,21 @@
         <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -561,19 +561,19 @@
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
